--- a/documents/projectmanagement/Definition/Projektkosten_PAMS_Zentral.xlsx
+++ b/documents/projectmanagement/Definition/Projektkosten_PAMS_Zentral.xlsx
@@ -88,19 +88,7 @@
     <t>Berater</t>
   </si>
   <si>
-    <t>32h, Machbarkeit, Umfeld, Risiko</t>
-  </si>
-  <si>
-    <t>40h, Konzeption, Dokumenation</t>
-  </si>
-  <si>
     <t>30h, Design Entwurf, Umsetzung, Anpassung</t>
-  </si>
-  <si>
-    <t>8h, DB-Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25h, PHP-DB, PHP-Logik  </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -166,6 +154,18 @@
   </si>
   <si>
     <t>Gesamtkosten Projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25h, Logik, Ausgabe, Eingabe, Datenbankzugriff, Login(Verschlüsselung), </t>
+  </si>
+  <si>
+    <t>8h, DB-Design, Erstellung</t>
+  </si>
+  <si>
+    <t>40h, Konzeption, Dokumenation, Aufgabenverteilung, Budgetverwaltung, Meilensteine festlegen</t>
+  </si>
+  <si>
+    <t>32h, Machbarkeit, Umfeld, Risiko, Statusberichte, Kommunikationsrichtlinien, Dokumentationsrichtlinien</t>
   </si>
 </sst>
 </file>
@@ -282,10 +282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1"/>
@@ -298,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -612,7 +614,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,18 +625,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -671,55 +673,55 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <f>30*55</f>
         <v>1650</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>8050</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9">
         <f>2*116.85</f>
         <v>233.7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12">
         <f>SUM(B4:B8)</f>
         <v>12836.460000000001</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -734,31 +736,31 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>720</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11">
         <f>SUM(B12:B12)</f>
         <v>720</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -771,89 +773,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="17">
         <v>681.6</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="17">
         <v>4368</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="17">
         <v>2238</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="17">
         <v>3417.6</v>
       </c>
-      <c r="C20" t="s">
-        <v>24</v>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <f>(SUM(B16:B20))*0.05</f>
         <v>535.2600000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="11">
         <f>SUM(B16:B21)</f>
         <v>11240.460000000001</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -889,21 +891,21 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="14">
+      <c r="A27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="12">
         <f>SUM(B25:B26)</f>
         <v>160</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -918,24 +920,24 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
         <v>800</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="14">
+      <c r="A31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="12">
         <f>SUM(B30)</f>
         <v>800</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -963,25 +965,25 @@
         <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="14">
+      <c r="A35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="12">
         <f>SUM(B34)</f>
         <v>40</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13">
+      <c r="A36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11">
         <f>B22+B27+B31+B35+B13+B9</f>
         <v>25796.920000000002</v>
       </c>
